--- a/Model Accuracy Metrics.xlsx
+++ b/Model Accuracy Metrics.xlsx
@@ -4,24 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="27795" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="27795" windowHeight="12600"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="main" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="16">
   <si>
     <t>Model accuracy</t>
-  </si>
-  <si>
-    <t>With Word2vec</t>
   </si>
   <si>
     <t>BoW</t>
@@ -36,25 +32,37 @@
     <t>SVM</t>
   </si>
   <si>
-    <t>RandomForest</t>
-  </si>
-  <si>
     <t>MODELs</t>
   </si>
   <si>
     <t>No preprocessing</t>
   </si>
   <si>
-    <t>Parameter(gives highest accuracy)</t>
+    <t>Naive Bayes</t>
   </si>
   <si>
-    <t>Lemma &amp; Stopwords</t>
+    <t>Clean &amp; Tokenized</t>
   </si>
   <si>
-    <t>Parameter 3</t>
+    <t>C+T+Lammatized</t>
   </si>
   <si>
-    <t>Naive Bayes</t>
+    <t>C+T+L+Stopwords removal</t>
+  </si>
+  <si>
+    <t>XGB</t>
+  </si>
+  <si>
+    <t>C+T+Lemmatized</t>
+  </si>
+  <si>
+    <t>XGBoost</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Word2vec</t>
+  </si>
+  <si>
+    <t>Accuracy  BoW</t>
   </si>
 </sst>
 </file>
@@ -199,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -208,14 +216,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -244,9 +246,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -262,6 +261,1799 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>main!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Word2vec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>main!$D$5:$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>LogR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>XGBoost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>main!$E$5:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.8962</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83599999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>main!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BoW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>main!$D$5:$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>LogR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>XGBoost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>main!$F$5:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.92679999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9264</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91790000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90839999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>main!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>With TFIDF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>main!$D$5:$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>LogR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>XGBoost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>main!$G$5:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.92579999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9264</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91069999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90400000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="157946624"/>
+        <c:axId val="157948160"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="157946624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="157948160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="157948160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="157946624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$F$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C+T+L+Stopwords removal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$G$9:$J$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>LogR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>XGB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$G$10:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.90410000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9073</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8931</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87670000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$F$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clean &amp; Tokenized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$G$9:$J$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>LogR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>XGB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$G$11:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.92090000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92090000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9073</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90029999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$F$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No preprocessing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$G$9:$J$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>LogR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>XGB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$G$12:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.92479999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92559999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90910000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90700000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$F$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C+T+Lemmatized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$G$9:$J$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>LogR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>XGB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$G$13:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.92579999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9264</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91069999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90410000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="155798528"/>
+        <c:axId val="156103424"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="155798528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="156103424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="156103424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="155798528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$F$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C+T+L+Stopwords removal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$G$19:$J$19</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>LogR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>XGBoost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$G$20:$J$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.90900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89939999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87660000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$F$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clean &amp; Tokenized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$G$19:$J$19</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>LogR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>XGBoost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$G$21:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92090000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91439999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89990000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$F$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No preprocessing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$G$19:$J$19</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>LogR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>XGBoost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$G$22:$J$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.92679999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91790000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90839999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$F$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C+T+Lammatized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$G$19:$J$19</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>LogR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>XGBoost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$G$23:$J$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.92589999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9264</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9173</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90459999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="159740672"/>
+        <c:axId val="159742592"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="159740672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="159742592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="159742592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="159740672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$F$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C+T+L+Stopwords removal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$G$9:$J$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>LogR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>XGB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$G$10:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.90410000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9073</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8931</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87670000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$F$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clean &amp; Tokenized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$G$9:$J$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>LogR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>XGB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$G$11:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.92090000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92090000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9073</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90029999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$F$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No preprocessing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$G$9:$J$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>LogR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>XGB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$G$12:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.92479999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92559999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90910000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90700000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$F$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C+T+Lemmatized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$G$9:$J$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>LogR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>XGB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$G$13:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.92579999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9264</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91069999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90410000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="259929984"/>
+        <c:axId val="154177536"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="259929984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="154177536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="154177536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="259929984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$F$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C+T+L+Stopwords removal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$G$19:$J$19</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>LogR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>XGBoost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$G$20:$J$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.90900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89939999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87660000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$F$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clean &amp; Tokenized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$G$19:$J$19</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>LogR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>XGBoost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$G$21:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92090000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91439999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89990000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$F$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No preprocessing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$G$19:$J$19</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>LogR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>XGBoost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$G$22:$J$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.92679999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91790000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90839999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$F$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C+T+Lammatized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$G$19:$J$19</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>LogR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>XGBoost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$G$23:$J$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.92589999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9264</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9173</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90459999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="161110656"/>
+        <c:axId val="161192960"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="161110656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="161192960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="161192960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="161110656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1090084</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>162983</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>83343</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>35720</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>35720</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>23814</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>438149</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -551,154 +2343,688 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="D3:H83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D6:H26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="26.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.85546875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="24.140625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="26.140625" style="1" customWidth="1"/>
+    <col min="9" max="14" width="21" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="4:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="2" t="s">
+    <row r="3" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="4:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="2" t="s">
+    </row>
+    <row r="5" spans="4:7" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="16"/>
-    </row>
-    <row r="8" spans="4:8" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="3" t="s">
+      <c r="E5" s="6">
+        <v>0.8962</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.92679999999999996</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.92579999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="4:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="4:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="5" t="s">
+      <c r="E6" s="6">
+        <v>0.80259999999999998</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.9264</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.9264</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.91790000000000005</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.91069999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.90839999999999999</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.90400000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="4:8" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="4:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="17" t="s">
+      <c r="E18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0.90410000000000001</v>
+      </c>
+      <c r="F19" s="11">
+        <v>0.9073</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0.8931</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0.87670000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0.92090000000000005</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0.92090000000000005</v>
+      </c>
+      <c r="G20" s="11">
+        <v>0.9073</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0.90029999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0.92479999999999996</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0.92559999999999998</v>
+      </c>
+      <c r="G21" s="11">
+        <v>0.90910000000000002</v>
+      </c>
+      <c r="H21" s="13">
+        <v>0.90700000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="4:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="7" t="s">
+      <c r="E22" s="9">
+        <v>0.92579999999999996</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0.9264</v>
+      </c>
+      <c r="G22" s="11">
+        <v>0.91069999999999995</v>
+      </c>
+      <c r="H22" s="13">
+        <v>0.90410000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+    </row>
+    <row r="29" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+    </row>
+    <row r="30" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="4:8" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="9">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="F32" s="11">
+        <v>0.90839999999999999</v>
+      </c>
+      <c r="G32" s="11">
+        <v>0.89939999999999998</v>
+      </c>
+      <c r="H32" s="13">
+        <v>0.87660000000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="F33" s="9">
+        <v>0.92090000000000005</v>
+      </c>
+      <c r="G33" s="11">
+        <v>0.91439999999999999</v>
+      </c>
+      <c r="H33" s="6">
+        <v>0.89990000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="8">
-        <v>0.83899999999999997</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8">
-        <v>0.90400000000000003</v>
-      </c>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="22" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="4:8" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="9" t="s">
+      <c r="E34" s="9">
+        <v>0.92679999999999996</v>
+      </c>
+      <c r="F34" s="11">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="G34" s="11">
+        <v>0.91790000000000005</v>
+      </c>
+      <c r="H34" s="13">
+        <v>0.90839999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="4:8" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="9">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="F35" s="11">
+        <v>0.9264</v>
+      </c>
+      <c r="G35" s="11">
+        <v>0.9173</v>
+      </c>
+      <c r="H35" s="13">
+        <v>0.90459999999999996</v>
+      </c>
+    </row>
+    <row r="70" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="4:8" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D71" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="4:8" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D72" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="9">
+        <v>0.90410000000000001</v>
+      </c>
+      <c r="F72" s="9">
+        <v>0.92090000000000005</v>
+      </c>
+      <c r="G72" s="9">
+        <v>0.92479999999999996</v>
+      </c>
+      <c r="H72" s="9">
+        <v>0.92579999999999996</v>
+      </c>
+    </row>
+    <row r="73" spans="4:8" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D73" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" s="11">
+        <v>0.9073</v>
+      </c>
+      <c r="F73" s="9">
+        <v>0.92090000000000005</v>
+      </c>
+      <c r="G73" s="11">
+        <v>0.92559999999999998</v>
+      </c>
+      <c r="H73" s="11">
+        <v>0.9264</v>
+      </c>
+    </row>
+    <row r="74" spans="4:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D74" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E74" s="11">
+        <v>0.8931</v>
+      </c>
+      <c r="F74" s="11">
+        <v>0.9073</v>
+      </c>
+      <c r="G74" s="11">
+        <v>0.90910000000000002</v>
+      </c>
+      <c r="H74" s="11">
+        <v>0.91069999999999995</v>
+      </c>
+    </row>
+    <row r="75" spans="4:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D75" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="13">
+        <v>0.87670000000000003</v>
+      </c>
+      <c r="F75" s="6">
+        <v>0.90029999999999999</v>
+      </c>
+      <c r="G75" s="13">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="H75" s="13">
+        <v>0.90410000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="4:8" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D79" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="9" t="s">
+      <c r="G79" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H79" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="4:8" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="10" t="s">
+    <row r="80" spans="4:8" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D80" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" s="9">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="F80" s="9">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="G80" s="9">
+        <v>0.92679999999999996</v>
+      </c>
+      <c r="H80" s="9">
+        <v>0.92589999999999995</v>
+      </c>
+    </row>
+    <row r="81" spans="4:8" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D81" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-    </row>
-    <row r="25" spans="4:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-    </row>
-    <row r="26" spans="4:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="15">
-        <v>0.90200000000000002</v>
-      </c>
-      <c r="F26" s="8">
-        <v>0.90400000000000003</v>
-      </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
+      <c r="E81" s="11">
+        <v>0.90839999999999999</v>
+      </c>
+      <c r="F81" s="9">
+        <v>0.92090000000000005</v>
+      </c>
+      <c r="G81" s="11">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="H81" s="11">
+        <v>0.9264</v>
+      </c>
+    </row>
+    <row r="82" spans="4:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D82" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" s="11">
+        <v>0.89939999999999998</v>
+      </c>
+      <c r="F82" s="11">
+        <v>0.91439999999999999</v>
+      </c>
+      <c r="G82" s="11">
+        <v>0.91790000000000005</v>
+      </c>
+      <c r="H82" s="11">
+        <v>0.9173</v>
+      </c>
+    </row>
+    <row r="83" spans="4:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D83" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" s="13">
+        <v>0.87660000000000005</v>
+      </c>
+      <c r="F83" s="6">
+        <v>0.89990000000000003</v>
+      </c>
+      <c r="G83" s="13">
+        <v>0.90839999999999999</v>
+      </c>
+      <c r="H83" s="13">
+        <v>0.90459999999999996</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="F8:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:J23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="6:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="6:10" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="6:10" ht="71.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0.90410000000000001</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0.9073</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0.8931</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0.87670000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="6:10" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0.92090000000000005</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0.92090000000000005</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0.9073</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0.90029999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="6:10" ht="71.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0.92479999999999996</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0.92559999999999998</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0.90910000000000002</v>
+      </c>
+      <c r="J12" s="13">
+        <v>0.90700000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="6:10" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0.92579999999999996</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0.9264</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0.91069999999999995</v>
+      </c>
+      <c r="J13" s="13">
+        <v>0.90410000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="6:10" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="6:10" ht="71.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="H20" s="11">
+        <v>0.90839999999999999</v>
+      </c>
+      <c r="I20" s="11">
+        <v>0.89939999999999998</v>
+      </c>
+      <c r="J20" s="13">
+        <v>0.87660000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="6:10" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0.92090000000000005</v>
+      </c>
+      <c r="I21" s="11">
+        <v>0.91439999999999999</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0.89990000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="6:10" ht="71.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0.92679999999999996</v>
+      </c>
+      <c r="H22" s="11">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="I22" s="11">
+        <v>0.91790000000000005</v>
+      </c>
+      <c r="J22" s="13">
+        <v>0.90839999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="6:10" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0.9264</v>
+      </c>
+      <c r="I23" s="11">
+        <v>0.9173</v>
+      </c>
+      <c r="J23" s="13">
+        <v>0.90459999999999996</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Model Accuracy Metrics.xlsx
+++ b/Model Accuracy Metrics.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
   <si>
     <t>Model accuracy</t>
   </si>
@@ -63,6 +63,21 @@
   </si>
   <si>
     <t>Accuracy  BoW</t>
+  </si>
+  <si>
+    <t>No Prep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C+T+L+Stopwords </t>
+  </si>
+  <si>
+    <t>TF-IDF</t>
+  </si>
+  <si>
+    <t>EXECUTIVE SUMMARY</t>
+  </si>
+  <si>
+    <t>Preprocessing Methods</t>
   </si>
 </sst>
 </file>
@@ -277,24 +292,34 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Model Accuracy</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> Comparision</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:bar3DChart>
+      <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
@@ -303,7 +328,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>main!$E$4</c:f>
+              <c:f>main!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -315,41 +340,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>main!$D$5:$D$8</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
+              <c:f>main!$C$4:$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>XGBoost</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>LogR</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>SVM</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Naive Bayes</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>XGBoost</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$5:$E$8</c:f>
+              <c:f>main!$D$4:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>0.83599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.8962</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>0.80259999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.83899999999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.83599999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -360,7 +385,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>main!$F$4</c:f>
+              <c:f>main!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -372,41 +397,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>main!$D$5:$D$8</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
+              <c:f>main!$C$4:$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>XGBoost</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>LogR</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>SVM</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Naive Bayes</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>XGBoost</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$F$5:$F$8</c:f>
+              <c:f>main!$E$4:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>0.90839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91790000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.92679999999999996</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>0.9264</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.91790000000000005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.90839999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -417,7 +442,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>main!$G$4</c:f>
+              <c:f>main!$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -427,43 +452,52 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>main!$D$5:$D$8</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
+              <c:f>main!$C$4:$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>XGBoost</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>LogR</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>SVM</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Naive Bayes</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>XGBoost</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$5:$G$8</c:f>
+              <c:f>main!$F$4:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>0.90400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91069999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.92579999999999996</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>0.9264</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.91069999999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.90400000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -478,22 +512,39 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:shape val="box"/>
-        <c:axId val="157946624"/>
-        <c:axId val="157948160"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
+        <c:axId val="218051328"/>
+        <c:axId val="218052864"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="157946624"/>
+        <c:axId val="218051328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1200"/>
+                  <a:t>Models</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157948160"/>
+        <c:crossAx val="218052864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -501,18 +552,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157948160"/>
+        <c:axId val="218052864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1200"/>
+                  <a:t>Accuracy </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157946624"/>
+        <c:crossAx val="218051328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -547,25 +617,36 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Model Accuracy</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> vs Pre-processing (on TFIDF)</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:bar3DChart>
+      <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
@@ -574,11 +655,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$F$10</c:f>
+              <c:f>main!$H$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>C+T+L+Stopwords removal</c:v>
+                  <c:v>No Prep</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -586,41 +667,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$G$9:$J$9</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
+              <c:f>main!$I$10:$L$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>XGB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>LogR</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>SVM</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Naive Bayes</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>XGB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$G$10:$J$10</c:f>
+              <c:f>main!$I$11:$L$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.90410000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.9073</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.8931</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.87670000000000003</c:v>
+                  <c:v>0.90700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90910000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92479999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92559999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -631,7 +712,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$F$11</c:f>
+              <c:f>main!$H$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -643,41 +724,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$G$9:$J$9</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
+              <c:f>main!$I$10:$L$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>XGB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>LogR</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>SVM</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Naive Bayes</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>XGB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$G$11:$J$11</c:f>
+              <c:f>main!$I$12:$L$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>0.90029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9073</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.92090000000000005</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>0.92090000000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.9073</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.90029999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -688,11 +769,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$F$12</c:f>
+              <c:f>main!$H$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>No preprocessing</c:v>
+                  <c:v>C+T+Lemmatized</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -700,41 +781,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$G$9:$J$9</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
+              <c:f>main!$I$10:$L$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>XGB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>LogR</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>SVM</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Naive Bayes</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>XGB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$G$12:$J$12</c:f>
+              <c:f>main!$I$13:$L$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.92479999999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.92559999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.90910000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.90700000000000003</c:v>
+                  <c:v>0.90410000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91069999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92579999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9264</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -745,62 +826,53 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$F$13</c:f>
+              <c:f>main!$H$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>C+T+Lemmatized</c:v>
+                  <c:v>C+T+L+Stopwords </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$G$9:$J$9</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
+              <c:f>main!$I$10:$L$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>XGB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>LogR</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>SVM</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Naive Bayes</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>XGB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$G$13:$J$13</c:f>
+              <c:f>main!$I$14:$L$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.92579999999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.9264</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.91069999999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                  <c:v>0.87670000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8931</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.90410000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -815,22 +887,39 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:shape val="box"/>
-        <c:axId val="155798528"/>
-        <c:axId val="156103424"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
+        <c:axId val="185557376"/>
+        <c:axId val="185559296"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="155798528"/>
+        <c:axId val="185557376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1400"/>
+                  <a:t>Model</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156103424"/>
+        <c:crossAx val="185559296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -838,18 +927,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156103424"/>
+        <c:axId val="185559296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1400"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155798528"/>
+        <c:crossAx val="185557376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -884,25 +992,31 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Model Accuracy vs Pre-processing (on BoW)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:bar3DChart>
+      <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
@@ -911,11 +1025,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$F$20</c:f>
+              <c:f>main!$O$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>C+T+L+Stopwords removal</c:v>
+                  <c:v>No Prep</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -923,41 +1037,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$G$19:$J$19</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
+              <c:f>main!$P$17:$S$17</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>XGBoost</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>LogR</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>SVM</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Naive Bayes</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>XGBoost</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$G$20:$J$20</c:f>
+              <c:f>main!$P$18:$S$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.90900000000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>0.90839999999999999</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.89939999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.87660000000000005</c:v>
+                <c:pt idx="1">
+                  <c:v>0.91790000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92679999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92500000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -968,7 +1082,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$F$21</c:f>
+              <c:f>main!$O$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -980,41 +1094,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$G$19:$J$19</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
+              <c:f>main!$P$17:$S$17</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>XGBoost</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>LogR</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>SVM</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Naive Bayes</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>XGBoost</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$G$21:$J$21</c:f>
+              <c:f>main!$P$19:$S$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>0.89990000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91439999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.92200000000000004</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>0.92090000000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.91439999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.89990000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1025,62 +1139,53 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$F$22</c:f>
+              <c:f>main!$O$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>No preprocessing</c:v>
+                  <c:v>C+T+Lemmatized</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$G$19:$J$19</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
+              <c:f>main!$P$17:$S$17</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>XGBoost</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>LogR</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>SVM</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Naive Bayes</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>XGBoost</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$G$22:$J$22</c:f>
+              <c:f>main!$P$20:$S$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.92679999999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.92500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.91790000000000005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.90839999999999999</c:v>
+                  <c:v>0.90459999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9173</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92589999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9264</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1091,11 +1196,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$F$23</c:f>
+              <c:f>main!$O$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>C+T+Lammatized</c:v>
+                  <c:v>C+T+L+Stopwords </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1103,41 +1208,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$G$19:$J$19</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
+              <c:f>main!$P$17:$S$17</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>XGBoost</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>LogR</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>SVM</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Naive Bayes</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>XGBoost</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$G$23:$J$23</c:f>
+              <c:f>main!$P$21:$S$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.92589999999999995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.9264</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.9173</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.90459999999999996</c:v>
+                  <c:v>0.87660000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89939999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90839999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1152,22 +1257,39 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:shape val="box"/>
-        <c:axId val="159740672"/>
-        <c:axId val="159742592"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
+        <c:axId val="222232576"/>
+        <c:axId val="141665408"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="159740672"/>
+        <c:axId val="222232576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Model</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159742592"/>
+        <c:crossAx val="141665408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1175,18 +1297,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159742592"/>
+        <c:axId val="141665408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159740672"/>
+        <c:crossAx val="222232576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1195,11 +1336,6 @@
       <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -1495,12 +1631,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="259929984"/>
-        <c:axId val="154177536"/>
+        <c:axId val="217864448"/>
+        <c:axId val="217866240"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="259929984"/>
+        <c:axId val="217864448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1509,7 +1645,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154177536"/>
+        <c:crossAx val="217866240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1517,7 +1653,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154177536"/>
+        <c:axId val="217866240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1528,14 +1664,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="259929984"/>
+        <c:crossAx val="217864448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1832,12 +1967,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="161110656"/>
-        <c:axId val="161192960"/>
+        <c:axId val="218837376"/>
+        <c:axId val="218838912"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="161110656"/>
+        <c:axId val="218837376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1846,7 +1981,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161192960"/>
+        <c:crossAx val="218838912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1854,7 +1989,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161192960"/>
+        <c:axId val="218838912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1865,14 +2000,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161110656"/>
+        <c:crossAx val="218837376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:ln>
@@ -1896,20 +2030,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1090084</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>162983</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3" title="Model accuracy vs Vectorizers"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1926,23 +2060,21 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>83343</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>107156</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1371599</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:colOff>555624</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1958,23 +2090,21 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>35720</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1352551</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>35720</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>23814</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2341,492 +2471,866 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="1F497D"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="EEECE1"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4F81BD"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="C0504D"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="9BBB59"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="8064A2"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4BACC6"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="F79646"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0000FF"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="800080"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Cambria"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="50000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="35000">
+            <a:schemeClr val="phClr">
+              <a:tint val="37000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:tint val="15000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="1"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:shade val="51000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="80000">
+            <a:schemeClr val="phClr">
+              <a:shade val="93000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="94000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t">
+            <a:rot lat="0" lon="0" rev="1200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="63500" h="25400"/>
+        </a:sp3d>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="40000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="40000">
+            <a:schemeClr val="phClr">
+              <a:tint val="45000"/>
+              <a:shade val="99000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="20000"/>
+              <a:satMod val="255000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="80000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="30000"/>
+              <a:satMod val="200000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="1F497D"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="EEECE1"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4F81BD"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="C0504D"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="9BBB59"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="8064A2"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4BACC6"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="F79646"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0000FF"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="800080"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Cambria"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="50000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="35000">
+            <a:schemeClr val="phClr">
+              <a:tint val="37000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:tint val="15000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="1"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:shade val="51000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="80000">
+            <a:schemeClr val="phClr">
+              <a:shade val="93000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="94000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t">
+            <a:rot lat="0" lon="0" rev="1200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="63500" h="25400"/>
+        </a:sp3d>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="40000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="40000">
+            <a:schemeClr val="phClr">
+              <a:tint val="45000"/>
+              <a:shade val="99000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="20000"/>
+              <a:satMod val="255000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="80000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="30000"/>
+              <a:satMod val="200000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:H83"/>
+  <dimension ref="C2:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="1" customWidth="1"/>
-    <col min="6" max="8" width="26.140625" style="1" customWidth="1"/>
-    <col min="9" max="14" width="21" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="19" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="21" style="1" customWidth="1"/>
+    <col min="15" max="15" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="4:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="2" t="s">
+    <row r="2" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="4:7" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="3" t="s">
+    <row r="4" spans="3:12" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.90839999999999999</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.90400000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.91790000000000005</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.91069999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="6">
+      <c r="D6" s="6">
         <v>0.8962</v>
       </c>
-      <c r="F5" s="6">
+      <c r="E6" s="6">
         <v>0.92679999999999996</v>
       </c>
-      <c r="G5" s="6">
+      <c r="F6" s="6">
         <v>0.92579999999999996</v>
       </c>
     </row>
-    <row r="6" spans="4:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="4" t="s">
+    <row r="7" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="6">
+      <c r="D7" s="6">
         <v>0.80259999999999998</v>
       </c>
-      <c r="F6" s="6">
+      <c r="E7" s="6">
         <v>0.9264</v>
       </c>
-      <c r="G6" s="6">
+      <c r="F7" s="6">
         <v>0.9264</v>
       </c>
     </row>
-    <row r="7" spans="4:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="14" t="s">
+    <row r="9" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="3:12" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="6">
-        <v>0.83899999999999997</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="K10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0.90910000000000002</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0.92479999999999996</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0.92559999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0.90029999999999999</v>
+      </c>
+      <c r="J12" s="11">
+        <v>0.9073</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0.92090000000000005</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0.92090000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="13">
+        <v>0.90410000000000001</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0.91069999999999995</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0.92579999999999996</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0.9264</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0.87670000000000003</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0.8931</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0.90410000000000001</v>
+      </c>
+      <c r="L14" s="11">
+        <v>0.9073</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="3:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="O17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P18" s="13">
+        <v>0.90839999999999999</v>
+      </c>
+      <c r="Q18" s="11">
         <v>0.91790000000000005</v>
       </c>
-      <c r="G7" s="6">
-        <v>0.91069999999999995</v>
+      <c r="R18" s="9">
+        <v>0.92679999999999996</v>
+      </c>
+      <c r="S18" s="11">
+        <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="8" spans="4:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0.83599999999999997</v>
-      </c>
-      <c r="F8" s="6">
+    <row r="19" spans="3:19" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="P19" s="6">
+        <v>0.89990000000000003</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>0.91439999999999999</v>
+      </c>
+      <c r="R19" s="9">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="S19" s="9">
+        <v>0.92090000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="3:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P20" s="13">
+        <v>0.90459999999999996</v>
+      </c>
+      <c r="Q20" s="11">
+        <v>0.9173</v>
+      </c>
+      <c r="R20" s="9">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="S20" s="11">
+        <v>0.9264</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="O21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P21" s="13">
+        <v>0.87660000000000005</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>0.89939999999999998</v>
+      </c>
+      <c r="R21" s="9">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="S21" s="11">
         <v>0.90839999999999999</v>
       </c>
-      <c r="G8" s="6">
-        <v>0.90400000000000003</v>
-      </c>
     </row>
-    <row r="17" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="4:8" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="4:8" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="9">
-        <v>0.90410000000000001</v>
-      </c>
-      <c r="F19" s="11">
-        <v>0.9073</v>
-      </c>
-      <c r="G19" s="11">
-        <v>0.8931</v>
-      </c>
-      <c r="H19" s="13">
-        <v>0.87670000000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="4:8" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="9">
-        <v>0.92090000000000005</v>
-      </c>
-      <c r="F20" s="9">
-        <v>0.92090000000000005</v>
-      </c>
-      <c r="G20" s="11">
-        <v>0.9073</v>
-      </c>
-      <c r="H20" s="6">
-        <v>0.90029999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="4:8" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="9">
-        <v>0.92479999999999996</v>
-      </c>
-      <c r="F21" s="11">
-        <v>0.92559999999999998</v>
-      </c>
-      <c r="G21" s="11">
-        <v>0.90910000000000002</v>
-      </c>
-      <c r="H21" s="13">
-        <v>0.90700000000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="4:8" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="9">
-        <v>0.92579999999999996</v>
-      </c>
-      <c r="F22" s="11">
-        <v>0.9264</v>
-      </c>
-      <c r="G22" s="11">
-        <v>0.91069999999999995</v>
-      </c>
-      <c r="H22" s="13">
-        <v>0.90410000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-    </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-    </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-    </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-    </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-    </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-    </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-    </row>
-    <row r="30" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-    </row>
-    <row r="31" spans="4:8" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="4:8" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="9">
-        <v>0.90900000000000003</v>
-      </c>
-      <c r="F32" s="11">
-        <v>0.90839999999999999</v>
-      </c>
-      <c r="G32" s="11">
-        <v>0.89939999999999998</v>
-      </c>
-      <c r="H32" s="13">
-        <v>0.87660000000000005</v>
-      </c>
-    </row>
-    <row r="33" spans="4:8" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="9">
-        <v>0.92200000000000004</v>
-      </c>
-      <c r="F33" s="9">
-        <v>0.92090000000000005</v>
-      </c>
-      <c r="G33" s="11">
-        <v>0.91439999999999999</v>
-      </c>
-      <c r="H33" s="6">
-        <v>0.89990000000000003</v>
-      </c>
-    </row>
-    <row r="34" spans="4:8" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="9">
-        <v>0.92679999999999996</v>
-      </c>
-      <c r="F34" s="11">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="G34" s="11">
-        <v>0.91790000000000005</v>
-      </c>
-      <c r="H34" s="13">
-        <v>0.90839999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="4:8" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="9">
-        <v>0.92589999999999995</v>
-      </c>
-      <c r="F35" s="11">
-        <v>0.9264</v>
-      </c>
-      <c r="G35" s="11">
-        <v>0.9173</v>
-      </c>
-      <c r="H35" s="13">
-        <v>0.90459999999999996</v>
-      </c>
-    </row>
-    <row r="70" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="4:8" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D71" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="4:8" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D72" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="9">
-        <v>0.90410000000000001</v>
-      </c>
-      <c r="F72" s="9">
-        <v>0.92090000000000005</v>
-      </c>
-      <c r="G72" s="9">
-        <v>0.92479999999999996</v>
-      </c>
-      <c r="H72" s="9">
-        <v>0.92579999999999996</v>
-      </c>
-    </row>
-    <row r="73" spans="4:8" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D73" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E73" s="11">
-        <v>0.9073</v>
-      </c>
-      <c r="F73" s="9">
-        <v>0.92090000000000005</v>
-      </c>
-      <c r="G73" s="11">
-        <v>0.92559999999999998</v>
-      </c>
-      <c r="H73" s="11">
-        <v>0.9264</v>
-      </c>
-    </row>
-    <row r="74" spans="4:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D74" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E74" s="11">
-        <v>0.8931</v>
-      </c>
-      <c r="F74" s="11">
-        <v>0.9073</v>
-      </c>
-      <c r="G74" s="11">
-        <v>0.90910000000000002</v>
-      </c>
-      <c r="H74" s="11">
-        <v>0.91069999999999995</v>
-      </c>
-    </row>
-    <row r="75" spans="4:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D75" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E75" s="13">
-        <v>0.87670000000000003</v>
-      </c>
-      <c r="F75" s="6">
-        <v>0.90029999999999999</v>
-      </c>
-      <c r="G75" s="13">
-        <v>0.90700000000000003</v>
-      </c>
-      <c r="H75" s="13">
-        <v>0.90410000000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="4:8" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D79" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="4:8" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D80" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E80" s="9">
-        <v>0.90900000000000003</v>
-      </c>
-      <c r="F80" s="9">
-        <v>0.92200000000000004</v>
-      </c>
-      <c r="G80" s="9">
-        <v>0.92679999999999996</v>
-      </c>
-      <c r="H80" s="9">
-        <v>0.92589999999999995</v>
-      </c>
-    </row>
-    <row r="81" spans="4:8" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D81" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E81" s="11">
-        <v>0.90839999999999999</v>
-      </c>
-      <c r="F81" s="9">
-        <v>0.92090000000000005</v>
-      </c>
-      <c r="G81" s="11">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="H81" s="11">
-        <v>0.9264</v>
-      </c>
-    </row>
-    <row r="82" spans="4:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D82" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E82" s="11">
-        <v>0.89939999999999998</v>
-      </c>
-      <c r="F82" s="11">
-        <v>0.91439999999999999</v>
-      </c>
-      <c r="G82" s="11">
-        <v>0.91790000000000005</v>
-      </c>
-      <c r="H82" s="11">
-        <v>0.9173</v>
-      </c>
-    </row>
-    <row r="83" spans="4:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D83" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E83" s="13">
-        <v>0.87660000000000005</v>
-      </c>
-      <c r="F83" s="6">
-        <v>0.89990000000000003</v>
-      </c>
-      <c r="G83" s="13">
-        <v>0.90839999999999999</v>
-      </c>
-      <c r="H83" s="13">
-        <v>0.90459999999999996</v>
+    <row r="34" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J34" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
